--- a/Planning/MainMenu.xlsx
+++ b/Planning/MainMenu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Video Games\GMS2 Projects\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD375DF-E8BF-47A6-A58A-3236AB7ED009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4050B0-18B4-443C-8421-B61478B8C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Findings &amp; Notes" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>"Settings"</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>If the player doesn't have any Rupees, the Rupee item will not be visible in the inventory</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07882391-5592-4C52-9D13-1317D8C66957}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1764,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A0126-85BB-46A8-9E0D-508D2852D6DD}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,6 +2207,24 @@
       <c r="E23" s="1" t="str">
         <f>_xlfn.CONCAT(A23,B23," = ",D23,";")</f>
         <v>global.ShowSubtitles = true;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>_xlfn.CONCAT(A24,B24," = ",D24,";")</f>
+        <v>global.Language = "en";</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Planning/MainMenu.xlsx
+++ b/Planning/MainMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4050B0-18B4-443C-8421-B61478B8C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB20B5-E6FE-4B3E-9757-0EEFC9E932AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Findings &amp; Notes" sheetId="4" r:id="rId1"/>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A56A5F7-2FBC-4A35-A9C1-2015521BEBEF}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A0126-85BB-46A8-9E0D-508D2852D6DD}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>_xlfn.CONCAT(A19,B19," = ",D19,";")</f>
+        <f t="shared" ref="E19:E24" si="1">_xlfn.CONCAT(A19,B19," = ",D19,";")</f>
         <v>global.DebugMode = True;</v>
       </c>
       <c r="G19" s="8"/>
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>_xlfn.CONCAT(A20,B20," = ",D20,";")</f>
+        <f t="shared" si="1"/>
         <v>global.WindowScale = 3;</v>
       </c>
       <c r="F20" s="8"/>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>_xlfn.CONCAT(A21,B21," = ",D21,";")</f>
+        <f t="shared" si="1"/>
         <v>global.Fullscreen = 0;</v>
       </c>
       <c r="F21" s="8"/>
@@ -2185,7 +2185,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>_xlfn.CONCAT(A22,B22," = ",D22,";")</f>
+        <f t="shared" si="1"/>
         <v>global.NewSoundtrack = True;</v>
       </c>
       <c r="F22" s="8"/>
@@ -2205,7 +2205,7 @@
         <v>122</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>_xlfn.CONCAT(A23,B23," = ",D23,";")</f>
+        <f t="shared" si="1"/>
         <v>global.ShowSubtitles = true;</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <v>162</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>_xlfn.CONCAT(A24,B24," = ",D24,";")</f>
+        <f t="shared" si="1"/>
         <v>global.Language = "en";</v>
       </c>
     </row>
@@ -2475,73 +2475,73 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
-        <f t="shared" ref="A44:A55" si="1">_xlfn.CONCAT("[",B27,",",D27,"]")</f>
+        <f t="shared" ref="A44:A55" si="2">_xlfn.CONCAT("[",B27,",",D27,"]")</f>
         <v>[Name,"EMPTY"]</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[CurrentHealth,60]</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[MaxHealth,60]</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[DamagePerHit,10]</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[CurrentLocation,"Spawn_Overworld"]</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[CurrentRupees,0]</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[Location,0]</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[CurrentTile,{x: 6, y: 22}]</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[PlayerSpawn,{x: 192, y: 128}]</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[Inventory_Spell,[Spell.Nothing]]</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[Inventory_Treasure,[Treasure.Nothing]]</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[CelestialSigns,[[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]]]</v>
       </c>
     </row>
